--- a/Form Rencana Produksi/Rencana  Produksi Stranding.xlsx
+++ b/Form Rencana Produksi/Rencana  Produksi Stranding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="459" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="459" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MM38" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="107">
   <si>
     <t>PT. LINKFORTUNE</t>
   </si>
@@ -138,27 +138,9 @@
     <t>機種Type：USB 28+24+D</t>
   </si>
   <si>
-    <t>開單日期 tanggal tulis form：___2024_____年Y___02__月M__01__日D</t>
-  </si>
-  <si>
     <t>機種Type：MB50</t>
   </si>
   <si>
-    <t>制令號No JO：20240130001</t>
-  </si>
-  <si>
-    <t>訂單數量Qty Order：100000 PCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">押出數量Qty ekstrusi：白 Putih 156,500 M </t>
-  </si>
-  <si>
-    <t>絞線數量 Qty lilit：157,500 M</t>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：白 Putih 156,500 M</t>
-  </si>
-  <si>
     <t>絞線規格 spesifikasi lilit：26/0.080 UEW+200D</t>
   </si>
   <si>
@@ -189,32 +171,6 @@
     <t>訂單數量Qty Order： PCS</t>
   </si>
   <si>
-    <r>
-      <t>制令號No JO：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20240207009, 20240207010</t>
-    </r>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：白 Putih  26,243 M / 綠 Hijau 26,243 M</t>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：红 merah 26,243 M / 黑 hitam 26,243 M</t>
-  </si>
-  <si>
-    <t>絞線數量 Qty lilit：56,486 M</t>
-  </si>
-  <si>
-    <t>訂單數量Qty Order：10000 PCS</t>
-  </si>
-  <si>
     <t>絞線規格 spesifikasi lilit：65/0.160A</t>
   </si>
   <si>
@@ -227,27 +183,9 @@
     <t>絞線規格 spesifikasi lilit：7/0.120 A</t>
   </si>
   <si>
-    <t>絞線數量 Qty lilit：27,243 M</t>
-  </si>
-  <si>
     <t>開單日期 tanggal tulis form：___2024_____年Y___02__月M__19__日D</t>
   </si>
   <si>
-    <t>制令號No JO：20240217008</t>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：红 merah 19,200 M / 黑 hitam19,200 M</t>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：白 Putih  19,200 M / 綠 Hijau 19,200 M</t>
-  </si>
-  <si>
-    <t>絞線數量 Qty lilit：20,200 M</t>
-  </si>
-  <si>
-    <t>絞線數量 Qty lilit：40,400 M</t>
-  </si>
-  <si>
     <t>制令號No JO：20240217007</t>
   </si>
   <si>
@@ -291,24 +229,6 @@
   </si>
   <si>
     <t>開單日期 tanggal tulis form：___2024_____年Y___03__月M__01__日D</t>
-  </si>
-  <si>
-    <t>制令號No JO：20240301004</t>
-  </si>
-  <si>
-    <t>訂單數量Qty Order：114000 PCS</t>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：白 Putih 182,260 M</t>
-  </si>
-  <si>
-    <t>絞線數量 Qty lilit：183,260 M</t>
-  </si>
-  <si>
-    <t>絞線數量 Qty lilit：733,040 M</t>
-  </si>
-  <si>
-    <t>押出數量Qty ekstrusi：红 merah 364,520 M / 黑 hitam 364,520 M</t>
   </si>
   <si>
     <t>制令號No JO：20240301008</t>
@@ -371,12 +291,138 @@
   <si>
     <t>絞線數量 Qty lilit：565,000 M</t>
   </si>
+  <si>
+    <t>訂單數量Qty Order：</t>
+  </si>
+  <si>
+    <r>
+      <t>制令號No JO：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20240312052,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20240312053, 20240312054</t>
+    </r>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：红 merah 71,774 M / 黑 hitam 71,774 M</t>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：白 Putih  71,774 M / 綠 Hijau 71,774 M</t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：72,774 M</t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：145,548 M</t>
+  </si>
+  <si>
+    <r>
+      <t>制令號No JO：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20240312052, 20240312053, 20240312054</t>
+    </r>
+  </si>
+  <si>
+    <t>開單日期 tanggal tulis form：___2024_____年Y___03__月M__13__日D</t>
+  </si>
+  <si>
+    <r>
+      <t>制令號No JO：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20240312055</t>
+    </r>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：红 merah 20,215 M / 黑 hitam 20,215 M</t>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：白 Putih  20,215 M / 綠 Hijau 20,215 M</t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：20,215 M</t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：42,430 M</t>
+  </si>
+  <si>
+    <t>制令號No JO：20240313003</t>
+  </si>
+  <si>
+    <t>訂單數量Qty Order：150000 PCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">押出數量Qty ekstrusi：白 Putih 233,250 M </t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：234,250 M</t>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：白 Putih 233,250 M</t>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：白 Putih 160,000 M</t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：161,000 M</t>
+  </si>
+  <si>
+    <t>訂單數量Qty Order：100000 PCS</t>
+  </si>
+  <si>
+    <t>押出數量Qty ekstrusi：红 merah 320,000 M / 黑 hitam 320,000 M</t>
+  </si>
+  <si>
+    <t>絞線數量 Qty lilit：644,000 M</t>
+  </si>
+  <si>
+    <t>制令號No JO：20240322001</t>
+  </si>
+  <si>
+    <t>開單日期 tanggal tulis form：___2024_____年Y___03__月M__22__日D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +449,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1018,7 +1070,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -1030,13 +1082,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
@@ -1045,7 +1097,7 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D7" s="32"/>
     </row>
@@ -1055,7 +1107,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -1191,7 +1243,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -1203,13 +1255,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
@@ -1218,7 +1270,7 @@
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D29" s="32"/>
     </row>
@@ -1228,7 +1280,7 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="34" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D30" s="34"/>
     </row>
@@ -1395,7 +1447,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,7 +1483,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -1443,13 +1495,13 @@
         <v>37</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
@@ -1458,17 +1510,17 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="38" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D8" s="39"/>
     </row>
@@ -1478,7 +1530,7 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D9" s="34"/>
     </row>
@@ -1608,7 +1660,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -1620,13 +1672,13 @@
         <v>37</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
@@ -1635,7 +1687,7 @@
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D29" s="32"/>
     </row>
@@ -1645,7 +1697,7 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="34" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D30" s="34"/>
     </row>
@@ -1814,7 +1866,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="C30" sqref="C30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1850,7 +1902,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -1862,13 +1914,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
@@ -1877,17 +1929,17 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="38" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D8" s="39"/>
     </row>
@@ -1897,7 +1949,7 @@
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="42" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D9" s="43"/>
     </row>
@@ -2027,7 +2079,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2039,13 +2091,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
@@ -2054,7 +2106,7 @@
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D29" s="45"/>
     </row>
@@ -2064,7 +2116,7 @@
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -2269,7 +2321,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -2281,13 +2333,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
@@ -2296,7 +2348,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="45"/>
     </row>
@@ -2306,7 +2358,7 @@
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -2442,7 +2494,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2454,13 +2506,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
@@ -2469,17 +2521,17 @@
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" ht="93.75" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -2645,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,7 +2734,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -2694,13 +2746,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
@@ -2709,7 +2761,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D7" s="45"/>
     </row>
@@ -2719,7 +2771,7 @@
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -2855,7 +2907,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2867,13 +2919,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
@@ -2882,7 +2934,7 @@
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D29" s="45"/>
     </row>
@@ -2892,7 +2944,7 @@
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -3058,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -3095,7 +3147,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3107,13 +3159,13 @@
         <v>33</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
@@ -3122,7 +3174,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D7" s="45"/>
     </row>
@@ -3132,7 +3184,7 @@
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -3268,7 +3320,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -3280,13 +3332,13 @@
         <v>36</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
@@ -3295,7 +3347,7 @@
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D29" s="45"/>
     </row>
@@ -3305,7 +3357,7 @@
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -3472,7 +3524,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3508,7 +3560,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3517,25 +3569,25 @@
     <row r="5" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="6" spans="1:4" ht="30.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D7" s="45"/>
     </row>
@@ -3545,7 +3597,7 @@
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -3681,7 +3733,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -3690,25 +3742,25 @@
     <row r="27" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="28" spans="1:4" ht="31.5">
       <c r="A28" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
       <c r="A29" s="44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D29" s="45"/>
     </row>
@@ -3718,7 +3770,7 @@
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -3921,7 +3973,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3930,35 +3982,35 @@
     <row r="5" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="6" spans="1:4" ht="30.75" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="93.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -4094,7 +4146,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -4103,35 +4155,35 @@
     <row r="27" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="28" spans="1:4" ht="31.5">
       <c r="A28" s="23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
       <c r="A29" s="44" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="44" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" ht="93.75" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -4334,7 +4386,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="30" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -4343,35 +4395,35 @@
     <row r="5" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="6" spans="1:4" ht="30.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="93.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -4507,7 +4559,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="30" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -4516,35 +4568,35 @@
     <row r="27" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="28" spans="1:4" ht="31.5">
       <c r="A28" s="26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="93.75" customHeight="1">
       <c r="A30" s="33" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D30" s="34"/>
     </row>
